--- a/lista_duracao.xlsx
+++ b/lista_duracao.xlsx
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>424</v>
+        <v>428</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>710</v>
+        <v>720</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>711</v>
+        <v>721</v>
       </c>
     </row>
     <row r="6">
@@ -416,7 +416,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>712</v>
+        <v>722</v>
       </c>
     </row>
   </sheetData>
